--- a/data/trans_orig/P16A15-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A15-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27077</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17695</v>
+        <v>18087</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37869</v>
+        <v>40279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05715050791707134</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03734975381946785</v>
+        <v>0.03817573922951891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07993012855496562</v>
+        <v>0.08501743624200342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13988</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7896</v>
+        <v>7359</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22969</v>
+        <v>22562</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04561212057986393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02574800485388586</v>
+        <v>0.02399707162195373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07489602853428047</v>
+        <v>0.07356948082380234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -786,19 +786,19 @@
         <v>41065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30150</v>
+        <v>29268</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55175</v>
+        <v>55150</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05261650044384129</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03863156519940715</v>
+        <v>0.03750058088364679</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07069536327969624</v>
+        <v>0.07066392812677071</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>446699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>435907</v>
+        <v>433497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>456081</v>
+        <v>455689</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9428494920829287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9200698714450344</v>
+        <v>0.9149825637579964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9626502461805321</v>
+        <v>0.9618242607704811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>285</v>
@@ -836,19 +836,19 @@
         <v>292692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283711</v>
+        <v>284118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298784</v>
+        <v>299321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.954387879420136</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9251039714657197</v>
+        <v>0.9264305191761977</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9742519951461142</v>
+        <v>0.9760029283780464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>713</v>
@@ -857,19 +857,19 @@
         <v>739392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>725282</v>
+        <v>725307</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750307</v>
+        <v>751189</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9473834995561587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9293046367203037</v>
+        <v>0.9293360718732293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9613684348005929</v>
+        <v>0.9624994191163533</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12275</v>
+        <v>12743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31035</v>
+        <v>30346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05412812816150965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03345349121672482</v>
+        <v>0.03472958716989135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0845799669266699</v>
+        <v>0.08270280762419717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>11172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5982</v>
+        <v>5860</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19418</v>
+        <v>19500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03004317929886487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01608704495168148</v>
+        <v>0.01575900964516872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05221870402944496</v>
+        <v>0.05243925309499189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1003,19 +1003,19 @@
         <v>31033</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21439</v>
+        <v>21375</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43625</v>
+        <v>43143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04200528256385485</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02901852728718632</v>
+        <v>0.02893194168867319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05904804827479552</v>
+        <v>0.05839553506552946</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>347073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>335899</v>
+        <v>336588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>354659</v>
+        <v>354191</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9458718718384903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9154200330733299</v>
+        <v>0.9172971923758028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9665465087832752</v>
+        <v>0.9652704128301084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -1053,19 +1053,19 @@
         <v>360693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352447</v>
+        <v>352365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365883</v>
+        <v>366005</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9699568207011351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9477812959705554</v>
+        <v>0.9475607469050075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9839129550483187</v>
+        <v>0.9842409903548313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>682</v>
@@ -1074,19 +1074,19 @@
         <v>707766</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>695174</v>
+        <v>695656</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>717360</v>
+        <v>717424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9579947174361452</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9409519517252044</v>
+        <v>0.9416044649344706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9709814727128137</v>
+        <v>0.9710680583113268</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>30318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20638</v>
+        <v>20718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41887</v>
+        <v>42000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05589806530070586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03804999279044827</v>
+        <v>0.03819776890751409</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07722715263150924</v>
+        <v>0.07743449128227099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>10994</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5920</v>
+        <v>5541</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18350</v>
+        <v>18782</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06552380115777984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03528536876945099</v>
+        <v>0.03302535085202026</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1093655309079998</v>
+        <v>0.1119400890050595</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>41312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30085</v>
+        <v>30550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55760</v>
+        <v>55271</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05817219972727271</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04236338970788466</v>
+        <v>0.04301743526671865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07851571180570149</v>
+        <v>0.07782757993662315</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>512071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500502</v>
+        <v>500389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>521751</v>
+        <v>521671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9441019346992942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.922772847368491</v>
+        <v>0.922565508717729</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9619500072095517</v>
+        <v>0.9618022310924857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -1270,19 +1270,19 @@
         <v>156788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149432</v>
+        <v>149000</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161862</v>
+        <v>162241</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9344761988422201</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8906344690920005</v>
+        <v>0.8880599109949405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9647146312305491</v>
+        <v>0.9669746491479798</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>655</v>
@@ -1291,19 +1291,19 @@
         <v>668859</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>654411</v>
+        <v>654900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680086</v>
+        <v>679621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9418278002727273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9214842881942984</v>
+        <v>0.9221724200633767</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9576366102921153</v>
+        <v>0.9569825647332814</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>93326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75845</v>
+        <v>76138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112303</v>
+        <v>111238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07536376483357519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0612479551342676</v>
+        <v>0.06148443184050156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09068849708455151</v>
+        <v>0.08982887083134398</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1416,19 +1416,19 @@
         <v>41525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30536</v>
+        <v>30607</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55959</v>
+        <v>54604</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05813522024966636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04275105570638314</v>
+        <v>0.04284980459683917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07834297407644882</v>
+        <v>0.07644628092833368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -1437,19 +1437,19 @@
         <v>134851</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113085</v>
+        <v>114940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157549</v>
+        <v>159640</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06906141293998215</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05791450665838288</v>
+        <v>0.0588645105777164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08068595052087972</v>
+        <v>0.08175700265318225</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1145008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1126031</v>
+        <v>1127096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1162489</v>
+        <v>1162196</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9246362351664248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9093115029154485</v>
+        <v>0.9101711291686561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9387520448657324</v>
+        <v>0.9385155681594984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>652</v>
@@ -1487,19 +1487,19 @@
         <v>672760</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>658326</v>
+        <v>659681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>683749</v>
+        <v>683678</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9418647797503337</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9216570259235506</v>
+        <v>0.9235537190716667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9572489442936168</v>
+        <v>0.9571501954031608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1778</v>
@@ -1508,19 +1508,19 @@
         <v>1817769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795071</v>
+        <v>1792980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1839535</v>
+        <v>1837680</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9309385870600179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9193140494791202</v>
+        <v>0.9182429973468177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9420854933416171</v>
+        <v>0.9411354894222835</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10268</v>
+        <v>10017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24564</v>
+        <v>24882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04650018366860959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02937526063106271</v>
+        <v>0.02865785101404153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07027641232640042</v>
+        <v>0.07118540443324052</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1633,19 +1633,19 @@
         <v>44597</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33057</v>
+        <v>33468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59734</v>
+        <v>58698</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07841237849475831</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05812251848625702</v>
+        <v>0.05884531992887729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.105027201298693</v>
+        <v>0.1032055621808208</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -1654,19 +1654,19 @@
         <v>60851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46438</v>
+        <v>47423</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78577</v>
+        <v>77659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06626533464330557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05056975220724465</v>
+        <v>0.05164324105858539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0855689605411085</v>
+        <v>0.08456965535230573</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>333283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>324973</v>
+        <v>324655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>339269</v>
+        <v>339520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9534998163313904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9297235876735996</v>
+        <v>0.9288145955667595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9706247393689373</v>
+        <v>0.9713421489859584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>496</v>
@@ -1704,19 +1704,19 @@
         <v>524155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>509018</v>
+        <v>510054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>535695</v>
+        <v>535284</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9215876215052416</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8949727987013065</v>
+        <v>0.8967944378191791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9418774815137428</v>
+        <v>0.9411546800711227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>817</v>
@@ -1725,19 +1725,19 @@
         <v>857438</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>839712</v>
+        <v>840630</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>871851</v>
+        <v>870866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9337346653566945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9144310394588916</v>
+        <v>0.9154303446476942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9494302477927555</v>
+        <v>0.9483567589414146</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2899</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8648</v>
+        <v>8088</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009719988308419886</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002943418146054948</v>
+        <v>0.00292081550258636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02900062235503407</v>
+        <v>0.0271237146647973</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>139</v>
@@ -1850,19 +1850,19 @@
         <v>144486</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122869</v>
+        <v>122517</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169777</v>
+        <v>167569</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1157035563456813</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09839261825225455</v>
+        <v>0.09811122637154508</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1359567968158932</v>
+        <v>0.1341884258311612</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>142</v>
@@ -1871,19 +1871,19 @@
         <v>147384</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126886</v>
+        <v>122605</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>171365</v>
+        <v>170903</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0952735837158461</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08202285463516394</v>
+        <v>0.07925518594918947</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1107756168983843</v>
+        <v>0.1104766656933778</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>295302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>289553</v>
+        <v>290113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297323</v>
+        <v>297330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9902800116915801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.970999377644966</v>
+        <v>0.9728762853352022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9970565818539451</v>
+        <v>0.9970791844974136</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1099</v>
@@ -1921,19 +1921,19 @@
         <v>1104274</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1078983</v>
+        <v>1081191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1125891</v>
+        <v>1126243</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8842964436543187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8640432031841069</v>
+        <v>0.8658115741688391</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9016073817477456</v>
+        <v>0.9018887736284549</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1402</v>
@@ -1942,19 +1942,19 @@
         <v>1399576</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1375595</v>
+        <v>1376057</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1420074</v>
+        <v>1424355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.904726416284154</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8892243831016158</v>
+        <v>0.8895233343066227</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9179771453648362</v>
+        <v>0.9207448140508107</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>189734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>166207</v>
+        <v>163800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>215288</v>
+        <v>216390</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05803736495477509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05084085238219116</v>
+        <v>0.05010440837489399</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06585404635149401</v>
+        <v>0.06619099396249148</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>259</v>
@@ -2067,19 +2067,19 @@
         <v>266762</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>235262</v>
+        <v>237304</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>300223</v>
+        <v>299090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07896759041255051</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06964290212546706</v>
+        <v>0.07024732910722206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08887276713159381</v>
+        <v>0.08853737867683042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>455</v>
@@ -2088,19 +2088,19 @@
         <v>456496</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>415907</v>
+        <v>418116</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>494161</v>
+        <v>497813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06867400562385965</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06256782169273066</v>
+        <v>0.06290015659349597</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07434020623402</v>
+        <v>0.07488951062478819</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3079438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3053884</v>
+        <v>3052782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3102965</v>
+        <v>3105372</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9419626350452249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9341459536485062</v>
+        <v>0.9338090060375085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.949159147617809</v>
+        <v>0.949895591625106</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3037</v>
@@ -2138,19 +2138,19 @@
         <v>3111362</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3077901</v>
+        <v>3079034</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3142862</v>
+        <v>3140820</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9210324095874495</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9111272328684062</v>
+        <v>0.9114626213231697</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9303570978745329</v>
+        <v>0.929752670892778</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6047</v>
@@ -2159,19 +2159,19 @@
         <v>6190800</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6153135</v>
+        <v>6149483</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6231389</v>
+        <v>6229180</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9313259943761404</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.92565979376598</v>
+        <v>0.9251104893752118</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9374321783072691</v>
+        <v>0.937099843406504</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>39363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26843</v>
+        <v>28158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54117</v>
+        <v>54868</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09019948155800558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06150987295784729</v>
+        <v>0.06452357939971262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1240073148344972</v>
+        <v>0.1257301092326277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2526,19 +2526,19 @@
         <v>17636</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10194</v>
+        <v>10802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27508</v>
+        <v>28115</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05608518389974107</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03241768723120409</v>
+        <v>0.0343519283169452</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08747818313784922</v>
+        <v>0.08940861771182346</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -2547,19 +2547,19 @@
         <v>56999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43527</v>
+        <v>41772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74649</v>
+        <v>74091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07591253945169553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05797074805119216</v>
+        <v>0.0556331066085869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09941920529468838</v>
+        <v>0.09867641549326713</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>397035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382281</v>
+        <v>381530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409555</v>
+        <v>408240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9098005184419944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8759926851655019</v>
+        <v>0.8742698907673724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9384901270421527</v>
+        <v>0.9354764206002875</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -2597,19 +2597,19 @@
         <v>296818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286946</v>
+        <v>286339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304260</v>
+        <v>303652</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.943914816100259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9125218168621512</v>
+        <v>0.9105913822881768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9675823127687961</v>
+        <v>0.9656480716830553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>637</v>
@@ -2618,19 +2618,19 @@
         <v>693853</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676203</v>
+        <v>676761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>707325</v>
+        <v>709080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9240874605483045</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9005807947053117</v>
+        <v>0.9013235845067329</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9420292519488079</v>
+        <v>0.9443668933914131</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>38035</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27046</v>
+        <v>27314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53039</v>
+        <v>52152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09120681997684102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06485501840947439</v>
+        <v>0.06549731308577715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1271854633545156</v>
+        <v>0.1250604689357533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -2743,19 +2743,19 @@
         <v>22083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13928</v>
+        <v>13257</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33527</v>
+        <v>33515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0658579471668517</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04153758582072864</v>
+        <v>0.03953601498751368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09998546662630224</v>
+        <v>0.09995160133202176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2764,19 +2764,19 @@
         <v>60118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45579</v>
+        <v>45706</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77980</v>
+        <v>79849</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0799088089449241</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06058390630088987</v>
+        <v>0.06075256913916975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1036502674788364</v>
+        <v>0.1061346539630181</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>378983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363979</v>
+        <v>364866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>389972</v>
+        <v>389704</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.908793180023159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8728145366454845</v>
+        <v>0.8749395310642467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9351449815905257</v>
+        <v>0.9345026869142229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>284</v>
@@ -2814,19 +2814,19 @@
         <v>313232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>301788</v>
+        <v>301800</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321387</v>
+        <v>322058</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9341420528331483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9000145333736977</v>
+        <v>0.9000483986679793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9584624141792714</v>
+        <v>0.960463985012487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>622</v>
@@ -2835,19 +2835,19 @@
         <v>692215</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>674353</v>
+        <v>672484</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706754</v>
+        <v>706627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9200911910550759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8963497325211635</v>
+        <v>0.8938653460369819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9394160936991102</v>
+        <v>0.9392474308608302</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>74055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59181</v>
+        <v>57798</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92613</v>
+        <v>93312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1178597665353488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09418796257171425</v>
+        <v>0.09198736063110355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1473961199312903</v>
+        <v>0.1485078898727758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -2960,19 +2960,19 @@
         <v>20952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12630</v>
+        <v>13444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31333</v>
+        <v>31091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0812281146588954</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04896563413737187</v>
+        <v>0.05212220576580521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1214740083520899</v>
+        <v>0.1205367505677214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -2981,19 +2981,19 @@
         <v>95007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75933</v>
+        <v>76312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115264</v>
+        <v>117059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1071985470246451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08567731888502519</v>
+        <v>0.08610459392240553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1300552412578252</v>
+        <v>0.1320809287432715</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>554274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535716</v>
+        <v>535017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>569148</v>
+        <v>570531</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8821402334646512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8526038800687098</v>
+        <v>0.8514921101272241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9058120374282858</v>
+        <v>0.9080126393688964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3031,19 +3031,19 @@
         <v>236986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226605</v>
+        <v>226847</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245308</v>
+        <v>244494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9187718853411045</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.87852599164791</v>
+        <v>0.8794632494322786</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9510343658626281</v>
+        <v>0.9478777942341947</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>746</v>
@@ -3052,19 +3052,19 @@
         <v>791260</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>771003</v>
+        <v>769208</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>810334</v>
+        <v>809955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.892801452975355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8699447587421751</v>
+        <v>0.8679190712567284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9143226811149748</v>
+        <v>0.9138954060775943</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>138894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118383</v>
+        <v>116397</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167105</v>
+        <v>164688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1199292551972201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1022187803594111</v>
+        <v>0.1005039450542167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.144288927427163</v>
+        <v>0.1422015240764785</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -3177,19 +3177,19 @@
         <v>61734</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46876</v>
+        <v>47983</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79538</v>
+        <v>79398</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08052362729129503</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06114344211367399</v>
+        <v>0.06258703110378426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1037469469333058</v>
+        <v>0.1035645143184088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -3198,19 +3198,19 @@
         <v>200628</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170363</v>
+        <v>174041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226205</v>
+        <v>230643</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1042336964694371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08851020639409538</v>
+        <v>0.09042098977916001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1175218996748515</v>
+        <v>0.1198279936899076</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1019236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>991025</v>
+        <v>993442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1039747</v>
+        <v>1041733</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8800707448027799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.855711072572837</v>
+        <v>0.8577984759235215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8977812196405888</v>
+        <v>0.8994960549457833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>656</v>
@@ -3248,19 +3248,19 @@
         <v>704923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>687119</v>
+        <v>687259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>719781</v>
+        <v>718674</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.919476372708705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8962530530666937</v>
+        <v>0.8964354856815913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9388565578863257</v>
+        <v>0.9374129688962159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1612</v>
@@ -3269,19 +3269,19 @@
         <v>1724160</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1698583</v>
+        <v>1694145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1754425</v>
+        <v>1750747</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.895766303530563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8824781003251483</v>
+        <v>0.8801720063100923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9114897936059045</v>
+        <v>0.90957901022084</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>58719</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44649</v>
+        <v>45163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72786</v>
+        <v>76031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1150013211715726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08744390070467421</v>
+        <v>0.08845075495447145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.142551671468701</v>
+        <v>0.1489068535424637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -3394,19 +3394,19 @@
         <v>115130</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94883</v>
+        <v>95885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137376</v>
+        <v>137406</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.151841490808876</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1251383518357151</v>
+        <v>0.1264603357542664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1811813469837422</v>
+        <v>0.1812214385990248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>160</v>
@@ -3415,19 +3415,19 @@
         <v>173849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>152025</v>
+        <v>150608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>203023</v>
+        <v>199678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1370163428369617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1198158228279997</v>
+        <v>0.1186990053330496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1600092093599124</v>
+        <v>0.1573728113438561</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>451877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>437810</v>
+        <v>434565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>465947</v>
+        <v>465433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8849986788284274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8574483285312989</v>
+        <v>0.8510931464575363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9125560992953257</v>
+        <v>0.9115492450455278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>594</v>
@@ -3465,19 +3465,19 @@
         <v>643094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>620848</v>
+        <v>620818</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>663341</v>
+        <v>662339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.848158509191124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8188186530162576</v>
+        <v>0.8187785614009752</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8748616481642848</v>
+        <v>0.8735396642457335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1027</v>
@@ -3486,19 +3486,19 @@
         <v>1094972</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1065798</v>
+        <v>1069143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116796</v>
+        <v>1118213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8629836571630384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8399907906400871</v>
+        <v>0.8426271886561438</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8801841771720003</v>
+        <v>0.8813009946669504</v>
       </c>
     </row>
     <row r="18">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11002</v>
+        <v>10534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01099328430130158</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04138699555589608</v>
+        <v>0.03962443241176438</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>184</v>
@@ -3611,19 +3611,19 @@
         <v>198032</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>174435</v>
+        <v>172951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225779</v>
+        <v>227655</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1790041196919501</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1576745857393724</v>
+        <v>0.1563328934517616</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2040846649499685</v>
+        <v>0.2057809358279974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -3632,19 +3632,19 @@
         <v>200955</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176353</v>
+        <v>175195</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227541</v>
+        <v>227681</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1464533940119858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1285238860113112</v>
+        <v>0.1276800232443072</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1658289656535397</v>
+        <v>0.1659314047313886</v>
       </c>
     </row>
     <row r="20">
@@ -3661,7 +3661,7 @@
         <v>262919</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254839</v>
+        <v>255307</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>265841</v>
@@ -3670,7 +3670,7 @@
         <v>0.9890067156986985</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9586130044441031</v>
+        <v>0.9603755675882356</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3682,19 +3682,19 @@
         <v>908268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>880521</v>
+        <v>878645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>931865</v>
+        <v>933349</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8209958803080499</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7959153350500315</v>
+        <v>0.7942190641720026</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8423254142606277</v>
+        <v>0.8436671065482384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1119</v>
@@ -3703,19 +3703,19 @@
         <v>1171186</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1144600</v>
+        <v>1144460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1195788</v>
+        <v>1196946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8535466059880141</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8341710343464603</v>
+        <v>0.834068595268611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8714761139886883</v>
+        <v>0.8723199767556927</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>351988</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>314472</v>
+        <v>315160</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>389125</v>
+        <v>389014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1030315230957353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09205015191511184</v>
+        <v>0.09225161226306731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1139020390039372</v>
+        <v>0.113869580838327</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>400</v>
@@ -3828,19 +3828,19 @@
         <v>435567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>396957</v>
+        <v>397641</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>476147</v>
+        <v>482096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1230802625867086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1121700003329853</v>
+        <v>0.1123632916523339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1345470117259869</v>
+        <v>0.1362281373999496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>716</v>
@@ -3849,19 +3849,19 @@
         <v>787555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>731072</v>
+        <v>733139</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>845134</v>
+        <v>843848</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1132325591124216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1051115970713307</v>
+        <v>0.1054087083457187</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1215110833288126</v>
+        <v>0.1213261531723907</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3064325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3027188</v>
+        <v>3027299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3101841</v>
+        <v>3101153</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8969684769042647</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8860979609960626</v>
+        <v>0.886130419161673</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9079498480848879</v>
+        <v>0.9077483877369327</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2880</v>
@@ -3899,19 +3899,19 @@
         <v>3103322</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3062742</v>
+        <v>3056793</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3141932</v>
+        <v>3141248</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8769197374132914</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8654529882740131</v>
+        <v>0.86377186260005</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8878299996670147</v>
+        <v>0.8876367083476659</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5763</v>
@@ -3920,19 +3920,19 @@
         <v>6167646</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6110067</v>
+        <v>6111353</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6224129</v>
+        <v>6222062</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8867674408875784</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8784889166711873</v>
+        <v>0.8786738468276092</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8948884029286692</v>
+        <v>0.8945912916542813</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>36571</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26285</v>
+        <v>25697</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49840</v>
+        <v>50188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08522829235416088</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06125626438740426</v>
+        <v>0.05988732475135129</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1161532507421468</v>
+        <v>0.116963854725768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4287,19 +4287,19 @@
         <v>14918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8145</v>
+        <v>8050</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24851</v>
+        <v>26198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04298499062657019</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0234693551326087</v>
+        <v>0.02319592476268458</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07160551081634482</v>
+        <v>0.075485538858689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -4308,19 +4308,19 @@
         <v>51489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38669</v>
+        <v>37212</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68536</v>
+        <v>68432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0663391557589308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04982169322461912</v>
+        <v>0.04794442627061491</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08830283810572116</v>
+        <v>0.08816930840814348</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>392521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>379252</v>
+        <v>378904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402807</v>
+        <v>403395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9147717076458391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8838467492578533</v>
+        <v>0.8830361452742324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9387437356125959</v>
+        <v>0.9401126752486487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4358,19 +4358,19 @@
         <v>332137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322204</v>
+        <v>320857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338910</v>
+        <v>339005</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9570150093734299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9283944891836552</v>
+        <v>0.924514461141311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9765306448673913</v>
+        <v>0.9768040752373154</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -4379,19 +4379,19 @@
         <v>724658</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>707611</v>
+        <v>707715</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>737478</v>
+        <v>738935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9336608442410692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.911697161894279</v>
+        <v>0.9118306915918567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9501783067753811</v>
+        <v>0.9520555737293852</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>30924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21333</v>
+        <v>21415</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43075</v>
+        <v>42492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08197662545547513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05655191645042477</v>
+        <v>0.05676966043048616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1141874669436389</v>
+        <v>0.112643252418712</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4504,19 +4504,19 @@
         <v>23460</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14296</v>
+        <v>14909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35661</v>
+        <v>35176</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06301855550810671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03840319607847788</v>
+        <v>0.04004801094462825</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09579148624782909</v>
+        <v>0.09449060466315323</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -4525,19 +4525,19 @@
         <v>54384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41113</v>
+        <v>42004</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70695</v>
+        <v>72933</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07256024095651406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05485453462586203</v>
+        <v>0.05604236354486678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0943228617346291</v>
+        <v>0.09730873983211299</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>346303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>334152</v>
+        <v>334735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>355894</v>
+        <v>355812</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9180233745445249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.885812533056361</v>
+        <v>0.8873567475812879</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9434480835495752</v>
+        <v>0.9432303395695139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -4575,19 +4575,19 @@
         <v>348813</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336612</v>
+        <v>337097</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357977</v>
+        <v>357364</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9369814444918932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9042085137521712</v>
+        <v>0.9055093953368468</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9615968039215222</v>
+        <v>0.9599519890553718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>656</v>
@@ -4596,19 +4596,19 @@
         <v>695116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678805</v>
+        <v>676567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>708387</v>
+        <v>707496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.927439759043486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9056771382653709</v>
+        <v>0.9026912601678873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.945145465374138</v>
+        <v>0.9439576364551333</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>59797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46401</v>
+        <v>46869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76263</v>
+        <v>75448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1145727444287064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08890557013241449</v>
+        <v>0.08980270400075613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1461210478403648</v>
+        <v>0.1445598597305964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -4721,19 +4721,19 @@
         <v>20914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13042</v>
+        <v>13157</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31719</v>
+        <v>33128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1258947785521835</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07850733490775508</v>
+        <v>0.07920072581442464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1909374560842731</v>
+        <v>0.1994205722450379</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -4742,19 +4742,19 @@
         <v>80711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64451</v>
+        <v>63117</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99344</v>
+        <v>99177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1173063902034603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09367414554627937</v>
+        <v>0.09173566055260472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1443879100157486</v>
+        <v>0.1441454138962386</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>462117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445651</v>
+        <v>446466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475513</v>
+        <v>475045</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8854272555712935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8538789521596351</v>
+        <v>0.8554401402694036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9110944298675855</v>
+        <v>0.9101972959992437</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -4792,19 +4792,19 @@
         <v>145209</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134404</v>
+        <v>132995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153081</v>
+        <v>152966</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8741052214478164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8090625439157271</v>
+        <v>0.8005794277549627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9214926650922449</v>
+        <v>0.9207992741855754</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>579</v>
@@ -4813,19 +4813,19 @@
         <v>607325</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>588692</v>
+        <v>588859</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623585</v>
+        <v>624919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8826936097965397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8556120899842518</v>
+        <v>0.8558545861037612</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9063258544537207</v>
+        <v>0.9082643394473946</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>118417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99094</v>
+        <v>99370</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141485</v>
+        <v>139805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1030039893416237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08619611932209333</v>
+        <v>0.0864357810734787</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.123069337741109</v>
+        <v>0.1216078878166829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -4938,19 +4938,19 @@
         <v>55461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42267</v>
+        <v>41764</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71261</v>
+        <v>70974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06715467062335068</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05117874569654594</v>
+        <v>0.05056981714294662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08628516956811404</v>
+        <v>0.08593782590661049</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -4959,19 +4959,19 @@
         <v>173879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148543</v>
+        <v>148168</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198008</v>
+        <v>200232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08801696144262451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07519193981593571</v>
+        <v>0.07500231677177936</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1002312465101762</v>
+        <v>0.1013570846051106</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1031221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1008153</v>
+        <v>1009833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1050544</v>
+        <v>1050268</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8969960106583763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8769306622588913</v>
+        <v>0.878392112183317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9138038806779067</v>
+        <v>0.9135642189265214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>746</v>
@@ -5009,19 +5009,19 @@
         <v>770415</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>754615</v>
+        <v>754902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>783609</v>
+        <v>784112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9328453293766493</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9137148304318859</v>
+        <v>0.9140621740933895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9488212543034541</v>
+        <v>0.9494301828570535</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1732</v>
@@ -5030,19 +5030,19 @@
         <v>1801635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1777506</v>
+        <v>1775282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1826971</v>
+        <v>1827346</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9119830385573755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8997687534898237</v>
+        <v>0.8986429153948896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.924808060184064</v>
+        <v>0.924997683228221</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>70452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56501</v>
+        <v>57450</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86706</v>
+        <v>87786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1135030725240136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09102740801389821</v>
+        <v>0.09255655764306664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1396886137330428</v>
+        <v>0.1414291410208202</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -5155,19 +5155,19 @@
         <v>99532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81364</v>
+        <v>80458</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119149</v>
+        <v>118086</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1348221806331652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1102132816613996</v>
+        <v>0.1089858780165614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1613947670827159</v>
+        <v>0.1599547168316236</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -5176,19 +5176,19 @@
         <v>169984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146350</v>
+        <v>145297</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>195517</v>
+        <v>196951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1250845922927845</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1076936664898998</v>
+        <v>0.106918753023997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1438736962673611</v>
+        <v>0.1449288470416656</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>550254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>534000</v>
+        <v>532920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564205</v>
+        <v>563256</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8864969274759864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8603113862669572</v>
+        <v>0.8585708589791797</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9089725919861017</v>
+        <v>0.9074434423569334</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>610</v>
@@ -5226,19 +5226,19 @@
         <v>638712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>619095</v>
+        <v>620158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>656880</v>
+        <v>657786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8651778193668348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8386052329172841</v>
+        <v>0.8400452831683766</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8897867183385998</v>
+        <v>0.8910141219834389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1132</v>
@@ -5247,19 +5247,19 @@
         <v>1188966</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1163433</v>
+        <v>1161999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1212600</v>
+        <v>1213653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8749154077072155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8561263037326389</v>
+        <v>0.8550711529583348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8923063335101002</v>
+        <v>0.8930812469760031</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7382</v>
+        <v>8515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008365072335645754</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02570847168107911</v>
+        <v>0.02965245393570711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>147</v>
@@ -5372,19 +5372,19 @@
         <v>173627</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>146587</v>
+        <v>148847</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>199830</v>
+        <v>201103</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.160464714158326</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1354742646564507</v>
+        <v>0.1375637638843702</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1846815950498828</v>
+        <v>0.1858582076418172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>149</v>
@@ -5393,19 +5393,19 @@
         <v>176029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151983</v>
+        <v>153281</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201326</v>
+        <v>203897</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1285660645465913</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1110040782454167</v>
+        <v>0.1119515736999062</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1470424754312175</v>
+        <v>0.1489200360897174</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>284743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279763</v>
+        <v>278630</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9916349276643542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9742915283189211</v>
+        <v>0.9703475460642929</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>908398</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>882195</v>
+        <v>880922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>935438</v>
+        <v>933178</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.839535285841674</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8153184049501172</v>
+        <v>0.814141792358183</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8645257353435493</v>
+        <v>0.8624362361156298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1115</v>
@@ -5464,19 +5464,19 @@
         <v>1193141</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1167844</v>
+        <v>1165273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1217187</v>
+        <v>1215889</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8714339354534087</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8529575245687824</v>
+        <v>0.8510799639102824</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8889959217545832</v>
+        <v>0.8880484263000937</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>318563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>285544</v>
+        <v>283225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352893</v>
+        <v>352071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09409012384116611</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08433775760560326</v>
+        <v>0.08365280220721495</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.104229803119913</v>
+        <v>0.1039870073909787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>337</v>
@@ -5589,19 +5589,19 @@
         <v>387912</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>351695</v>
+        <v>349811</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>428626</v>
+        <v>425419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1098404769570453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09958528876662341</v>
+        <v>0.09905172788450159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1213690488784989</v>
+        <v>0.1204608099263007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>654</v>
@@ -5610,19 +5610,19 @@
         <v>706475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>653403</v>
+        <v>655897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>755463</v>
+        <v>758071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1021313735979138</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09445900815482036</v>
+        <v>0.09481956515304647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1092133533393458</v>
+        <v>0.1095903370206133</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3067159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3032829</v>
+        <v>3033651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3100178</v>
+        <v>3102497</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9059098761588339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8957701968800871</v>
+        <v>0.8960129926090211</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9156622423943968</v>
+        <v>0.916347197792785</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2989</v>
@@ -5660,19 +5660,19 @@
         <v>3143684</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3102970</v>
+        <v>3106177</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3179901</v>
+        <v>3181785</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8901595230429548</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8786309511215011</v>
+        <v>0.8795391900736993</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9004147112333766</v>
+        <v>0.9009482721154984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5896</v>
@@ -5681,19 +5681,19 @@
         <v>6210843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6161855</v>
+        <v>6159247</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6263915</v>
+        <v>6261421</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8978686264020862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8907866466606544</v>
+        <v>0.8904096629793865</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9055409918451797</v>
+        <v>0.9051804348469534</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>65036</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52784</v>
+        <v>51557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80898</v>
+        <v>80592</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1181146955691784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09586394471196411</v>
+        <v>0.09363475432305933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1469215993824479</v>
+        <v>0.1463664938531575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -6048,19 +6048,19 @@
         <v>51134</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39808</v>
+        <v>40597</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62513</v>
+        <v>63478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1046950566370972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08150585408674788</v>
+        <v>0.08311956735330368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1279923355025215</v>
+        <v>0.1299688380449125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>166</v>
@@ -6069,19 +6069,19 @@
         <v>116170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99605</v>
+        <v>99777</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133621</v>
+        <v>134215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1118065975476292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09586384120431163</v>
+        <v>0.09602953158683884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1286016077691104</v>
+        <v>0.1291730236268618</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>485582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>469720</v>
+        <v>470026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>497834</v>
+        <v>499061</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8818853044308218</v>
+        <v>0.8818853044308216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8530784006175522</v>
+        <v>0.8536335061468425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9041360552880359</v>
+        <v>0.9063652456769408</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>605</v>
@@ -6119,19 +6119,19 @@
         <v>437277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>425898</v>
+        <v>424933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>448603</v>
+        <v>447814</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8953049433629029</v>
+        <v>0.8953049433629027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8720076644974786</v>
+        <v>0.8700311619550873</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9184941459132521</v>
+        <v>0.9168804326466964</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1074</v>
@@ -6140,19 +6140,19 @@
         <v>922859</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>905408</v>
+        <v>904814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>939424</v>
+        <v>939252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.888193402452371</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8713983922308896</v>
+        <v>0.8708269763731382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9041361587956883</v>
+        <v>0.9039704684131611</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>67018</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51372</v>
+        <v>54190</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81818</v>
+        <v>82678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.138692000191453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1063125622048926</v>
+        <v>0.1121455395975668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1693203422299983</v>
+        <v>0.1711003142785212</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -6265,19 +6265,19 @@
         <v>38709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30112</v>
+        <v>30185</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48083</v>
+        <v>49403</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09147982907290127</v>
+        <v>0.09147982907290128</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07116229632795387</v>
+        <v>0.07133561658445177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1136336215760355</v>
+        <v>0.1167523586031031</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -6286,19 +6286,19 @@
         <v>105727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90044</v>
+        <v>89832</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122085</v>
+        <v>124623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1166504239730571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09934748521855688</v>
+        <v>0.09911392643638678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.134698607729126</v>
+        <v>0.1374995658458618</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>416194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401394</v>
+        <v>400534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>431840</v>
+        <v>429022</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8613079998085471</v>
+        <v>0.861307999808547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8306796577700016</v>
+        <v>0.8288996857214789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8936874377951074</v>
+        <v>0.8878544604024332</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>524</v>
@@ -6336,19 +6336,19 @@
         <v>384434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>375060</v>
+        <v>373740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>393031</v>
+        <v>392958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9085201709270987</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8863663784239637</v>
+        <v>0.8832476413968969</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.928837703672046</v>
+        <v>0.9286643834155484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>924</v>
@@ -6357,19 +6357,19 @@
         <v>800628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>784270</v>
+        <v>781732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>816311</v>
+        <v>816523</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8833495760269428</v>
+        <v>0.883349576026943</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.865301392270874</v>
+        <v>0.8625004341541382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9006525147814433</v>
+        <v>0.9008860735636134</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>68113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54589</v>
+        <v>54492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83511</v>
+        <v>83010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1444255573280873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1157496077868218</v>
+        <v>0.1155441565324962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1770763389670567</v>
+        <v>0.1760143445721219</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -6482,19 +6482,19 @@
         <v>30182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22888</v>
+        <v>23788</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38238</v>
+        <v>39159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1609738006929587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1220723451762328</v>
+        <v>0.126869655935989</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2039417237087247</v>
+        <v>0.2088534783318664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -6503,19 +6503,19 @@
         <v>98295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82493</v>
+        <v>83508</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114290</v>
+        <v>116129</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1491330498697868</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.125158824288557</v>
+        <v>0.126698713120754</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1734004828337108</v>
+        <v>0.1761911790226108</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>403499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>388101</v>
+        <v>388602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>417023</v>
+        <v>417120</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8555744426719127</v>
+        <v>0.8555744426719126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8229236610329435</v>
+        <v>0.823985655427878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8842503922131782</v>
+        <v>0.8844558434675038</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -6553,19 +6553,19 @@
         <v>157315</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149259</v>
+        <v>148338</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164609</v>
+        <v>163709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8390261993070413</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7960582762912752</v>
+        <v>0.7911465216681337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8779276548237671</v>
+        <v>0.873130344064011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -6574,19 +6574,19 @@
         <v>560814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>544819</v>
+        <v>542980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576616</v>
+        <v>575601</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8508669501302132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8265995171662894</v>
+        <v>0.8238088209773891</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.874841175711443</v>
+        <v>0.8733012868792461</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>153998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135096</v>
+        <v>133720</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174690</v>
+        <v>176226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1360598414729183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1193591625953694</v>
+        <v>0.1181437092504342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1543409129418401</v>
+        <v>0.1556985289279551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -6699,19 +6699,19 @@
         <v>91792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79076</v>
+        <v>79686</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106765</v>
+        <v>106442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1066590652573186</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09188279374357353</v>
+        <v>0.09259163605501605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1240564069649092</v>
+        <v>0.1236811792954403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -6720,19 +6720,19 @@
         <v>245791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220146</v>
+        <v>222448</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272645</v>
+        <v>273366</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1233605740480554</v>
+        <v>0.1233605740480555</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1104898056190868</v>
+        <v>0.1116448625176891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1368384913883305</v>
+        <v>0.1372003243542045</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>977845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>957153</v>
+        <v>955617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>996747</v>
+        <v>998123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8639401585270817</v>
+        <v>0.8639401585270816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8456590870581597</v>
+        <v>0.8443014710720447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8806408374046305</v>
+        <v>0.8818562907495657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1060</v>
@@ -6770,19 +6770,19 @@
         <v>768823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753850</v>
+        <v>754173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>781539</v>
+        <v>780929</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8933409347426815</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8759435930350908</v>
+        <v>0.8763188207045589</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9081172062564266</v>
+        <v>0.9074083639449836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1972</v>
@@ -6791,19 +6791,19 @@
         <v>1746667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1719813</v>
+        <v>1719092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1772312</v>
+        <v>1770010</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8766394259519443</v>
+        <v>0.8766394259519447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8631615086116701</v>
+        <v>0.8627996756457954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8895101943809137</v>
+        <v>0.8883551374823109</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>60926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47873</v>
+        <v>48186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74925</v>
+        <v>76740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1074581899608335</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08443497112112419</v>
+        <v>0.08498780976136826</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1321480655547723</v>
+        <v>0.1353504493694239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -6916,19 +6916,19 @@
         <v>159047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141951</v>
+        <v>142240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>177105</v>
+        <v>176010</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1915932737362015</v>
+        <v>0.1915932737362014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1709993314729358</v>
+        <v>0.1713469568566523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.213346501919978</v>
+        <v>0.212028152093197</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>385</v>
@@ -6937,19 +6937,19 @@
         <v>219973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197741</v>
+        <v>198076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>241692</v>
+        <v>244036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1574493565401241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1415367773784129</v>
+        <v>0.1417764605783629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1729954716458794</v>
+        <v>0.174672975279043</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>506050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>492051</v>
+        <v>490236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>519103</v>
+        <v>518790</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8925418100391665</v>
+        <v>0.8925418100391663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8678519344452279</v>
+        <v>0.8646495506305758</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9155650288788758</v>
+        <v>0.9150121902386317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>986</v>
@@ -6987,19 +6987,19 @@
         <v>671080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>653022</v>
+        <v>654117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>688176</v>
+        <v>687887</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8084067262637985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7866534980800212</v>
+        <v>0.7879718479068027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8290006685270639</v>
+        <v>0.8286530431433471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1450</v>
@@ -7008,19 +7008,19 @@
         <v>1177130</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1155411</v>
+        <v>1153067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1199362</v>
+        <v>1199027</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8425506434598761</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8270045283541205</v>
+        <v>0.8253270247209571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.858463222621587</v>
+        <v>0.8582235394216371</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>3643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1290</v>
+        <v>1332</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8145</v>
+        <v>7787</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01535727660851111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00543845061182914</v>
+        <v>0.005615313678609837</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0343349814634246</v>
+        <v>0.0328259245327956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>257</v>
@@ -7133,19 +7133,19 @@
         <v>141332</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123930</v>
+        <v>124598</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160575</v>
+        <v>159273</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1676547597233674</v>
+        <v>0.1676547597233673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1470121005859197</v>
+        <v>0.1478047811398081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1904820630209092</v>
+        <v>0.1889373742639776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>263</v>
@@ -7154,19 +7154,19 @@
         <v>144975</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126757</v>
+        <v>128567</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163302</v>
+        <v>164915</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1342086436088978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1173431796492198</v>
+        <v>0.1190187193239211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.151174293010499</v>
+        <v>0.1526674452130264</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>233585</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229083</v>
+        <v>229441</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235938</v>
+        <v>235896</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9846427233914888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9656650185365755</v>
+        <v>0.9671740754672044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.994561549388171</v>
+        <v>0.9943846863213901</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>900</v>
@@ -7204,19 +7204,19 @@
         <v>701661</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>682418</v>
+        <v>683720</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>719063</v>
+        <v>718395</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8323452402766326</v>
+        <v>0.8323452402766325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8095179369790909</v>
+        <v>0.8110626257360222</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8529878994140803</v>
+        <v>0.8521952188601918</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1006</v>
@@ -7225,19 +7225,19 @@
         <v>935246</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>916919</v>
+        <v>915306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>953464</v>
+        <v>951654</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8657913563911023</v>
+        <v>0.8657913563911022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8488257069895014</v>
+        <v>0.8473325547869739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8826568203507805</v>
+        <v>0.8809812806760792</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>418734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>382101</v>
+        <v>384691</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>451830</v>
+        <v>454367</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1216724300496812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1110278708502806</v>
+        <v>0.1117804872722674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1312891874592232</v>
+        <v>0.1320264610253851</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>932</v>
@@ -7350,19 +7350,19 @@
         <v>512196</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>481298</v>
+        <v>478212</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>546405</v>
+        <v>546571</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1409927053901499</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1324871786467368</v>
+        <v>0.1316377860031435</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1504093790600475</v>
+        <v>0.1504549135575262</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1478</v>
@@ -7371,19 +7371,19 @@
         <v>930931</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>881953</v>
+        <v>886859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>982015</v>
+        <v>987189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1315937907546691</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.124670427621151</v>
+        <v>0.1253639370140671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.138814935602652</v>
+        <v>0.139546337763233</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3022754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2989658</v>
+        <v>2987121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3059387</v>
+        <v>3056797</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8783275699503188</v>
+        <v>0.8783275699503189</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8687108125407768</v>
+        <v>0.8679735389746148</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8889721291497197</v>
+        <v>0.8882195127277326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4308</v>
@@ -7421,19 +7421,19 @@
         <v>3120590</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3086381</v>
+        <v>3086215</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3151488</v>
+        <v>3154574</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8590072946098501</v>
+        <v>0.85900729460985</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8495906209399524</v>
+        <v>0.8495450864424738</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8675128213532634</v>
+        <v>0.8683622139968566</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7061</v>
@@ -7442,19 +7442,19 @@
         <v>6143344</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6092260</v>
+        <v>6087086</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6192322</v>
+        <v>6187416</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8684062092453307</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.861185064397348</v>
+        <v>0.8604536622367667</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.875329572378849</v>
+        <v>0.8746360629859328</v>
       </c>
     </row>
     <row r="24">
